--- a/trend_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
+++ b/trend_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9520241182126959</v>
+        <v>0.0479758817873041</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0004365883750586</v>
+        <v>0.999563411624941</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.524124543366234</v>
+        <v>0.475875456633766</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>

--- a/trend_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
+++ b/trend_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,17 +569,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.824318803067713</v>
+        <v>0.487892708675289</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.837209302325581</v>
+        <v>0.886363636363636</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>43</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.68798701298701</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-8.369819097638331</v>
+        <v>-4.53023616189836</v>
       </c>
       <c r="M2" t="n">
-        <v>2.12775924679304</v>
+        <v>6.54857988715946</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.25113258834189</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.52</v>
+        <v>10.57</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0008123037676607999</v>
+        <v>-0.0299589883800408</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.103353319031944</v>
+        <v>-0.110576053542833</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0976733699699474</v>
+        <v>0.070020377204336</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0077215187040008</v>
+        <v>-0.283434137937945</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0912744259455416</v>
+        <v>0.388577344564336</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.327586206896552</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0075</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0007826785714285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0004630065547854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0016420061409572</v>
+        <v>0.0008745731198998</v>
       </c>
       <c r="N4" t="n">
-        <v>8.696428571428569</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.548069501492027</v>
+        <v>0.0696446828434242</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.665273556231</v>
+        <v>16.1729241676862</v>
       </c>
       <c r="L5" t="n">
-        <v>-32.959186108554</v>
+        <v>-5.69316070259223</v>
       </c>
       <c r="M5" t="n">
-        <v>36.2191459369933</v>
+        <v>71.31032311550121</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.693863981762918</v>
+        <v>7.70139246080293</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.360851001055767</v>
+        <v>0.512885504105308</v>
       </c>
       <c r="G6" t="n">
-        <v>0.839285714285714</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.178571428571429</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.445532237170448</v>
+        <v>0.996560912970298</v>
       </c>
       <c r="G7" t="n">
-        <v>0.224137931034483</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="H7" t="n">
-        <v>0.137931034482759</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.003</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0006000958888937</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-11.0782529572338</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0326627202322875</v>
+        <v>2.51043042057803e-05</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3265</v>
+        <v>0.336</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0278471989436214</v>
+        <v>0.0542340344225381</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009589205307953</v>
+        <v>0.0321395451203863</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0433960354125433</v>
+        <v>0.07168570367322839</v>
       </c>
       <c r="N8" t="n">
-        <v>8.52900427063442</v>
+        <v>16.1410816733744</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0479758817873041</v>
+        <v>6.13961447289979e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.741379310344828</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.58</v>
+        <v>7.565</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0317411545623835</v>
+        <v>-0.0652232142857145</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.060206043956044</v>
+        <v>-0.09583675632839191</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.0389401439695311</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.418748740928543</v>
+        <v>-0.862170710981024</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.041230749793399</v>
+        <v>0.0001485170235424</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.341</v>
+        <v>0.357</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0255875686813187</v>
+        <v>0.0509527098048522</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0012480234188689</v>
+        <v>0.0294980671350336</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0417710897606289</v>
+        <v>0.0674342383128235</v>
       </c>
       <c r="N10" t="n">
-        <v>7.50368583029873</v>
+        <v>14.2724677324516</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.242101902121368</v>
+        <v>1.57186354734402e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0.396551724137931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.241379310344828</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.505</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.060206043956044</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0455306598785964</v>
       </c>
       <c r="M11" t="n">
-        <v>0.227248688374905</v>
+        <v>0.07024038461538459</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>11.9219889021869</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.187521811779306</v>
+        <v>0.0056558066848963</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.724137931034483</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.515</v>
+        <v>0.0175</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0125129188245965</v>
+        <v>0.0019877551020408</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0103343763233945</v>
+        <v>0.0006878046255121</v>
       </c>
       <c r="M12" t="n">
-        <v>0.039771002019956</v>
+        <v>0.0038293732538522</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4296929756498</v>
+        <v>11.3586005830904</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0219318659515972</v>
+        <v>0.212284438280387</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.551724137931034</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.018</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0019877551020408</v>
+        <v>0.0369405815423514</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002746157583431</v>
+        <v>-0.0316354768096388</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0034755876754408</v>
+        <v>0.172415925984401</v>
       </c>
       <c r="N13" t="n">
-        <v>11.0430839002268</v>
+        <v>3.48496052286334</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.226180092128163</v>
+        <v>0.346046578557065</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.862068965517241</v>
+        <v>0.690721649484536</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.145</v>
+        <v>43</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0369405815423514</v>
+        <v>0.396055122322586</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0402352631321085</v>
+        <v>-1.48461679540763</v>
       </c>
       <c r="M14" t="n">
-        <v>0.15034258764092</v>
+        <v>2.55967443363762</v>
       </c>
       <c r="N14" t="n">
-        <v>3.22625166308746</v>
+        <v>0.921058424006014</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.300175709572642</v>
+        <v>0.322176294984945</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>0.65979381443299</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>43</v>
+        <v>3.09</v>
       </c>
       <c r="K15" t="n">
-        <v>0.499954424316824</v>
+        <v>-0.0207057823129252</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.22907575755692</v>
+        <v>-0.133058760970178</v>
       </c>
       <c r="M15" t="n">
-        <v>2.30559949374991</v>
+        <v>0.099164958567185</v>
       </c>
       <c r="N15" t="n">
-        <v>1.16268470771354</v>
+        <v>-0.670090042489488</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.997159743518881</v>
+        <v>0.999639313749991</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0506329113924051</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.658227848101266</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>10.35</v>
       </c>
       <c r="K16" t="n">
-        <v>0.21000663423264</v>
+        <v>0.0883771032704891</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0994468305073322</v>
+        <v>0.0492079078013803</v>
       </c>
       <c r="M16" t="n">
-        <v>0.312876798104415</v>
+        <v>0.117545255093733</v>
       </c>
       <c r="N16" t="n">
-        <v>7.00022114108801</v>
+        <v>0.853885055753518</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.999563411624941</v>
+        <v>0.999356505128005</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.889830508474576</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.31</v>
+        <v>0.01</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09003026017741669</v>
+        <v>-0.0005473276723276</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0523950361321184</v>
+        <v>-0.0008415898617511</v>
       </c>
       <c r="M17" t="n">
-        <v>0.134032201243988</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="N17" t="n">
-        <v>0.87323239745312</v>
+        <v>-5.47327672327672</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.960127729232006</v>
+        <v>0.163533353374155</v>
       </c>
       <c r="G18" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.220338983050847</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01</v>
+        <v>229.5</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0003240905057675</v>
+        <v>2.81727786567848</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0007078488372093</v>
+        <v>-2.87957097312736</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>13.7478040800349</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.24090505767524</v>
+        <v>1.22757205476186</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,32 +2112,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.54814261687434</v>
+        <v>0.0070160868088488</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.887931034482759</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.129310344827586</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>234.5</v>
+        <v>0.005</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-10.9741152525707</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>9.745474714476201</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0255300300005644</v>
+        <v>0.999684835671357</v>
       </c>
       <c r="G20" t="n">
-        <v>0.905172413793103</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="H20" t="n">
-        <v>0.112068965517241</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.0001868286445012</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-0.0002990176013098</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-6.22762148337596</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9976043081496641</v>
+        <v>0.0060288184717891</v>
       </c>
       <c r="G21" t="n">
-        <v>0.177966101694915</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H21" t="n">
-        <v>0.127118644067797</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003</v>
+        <v>0.35205</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0001646011716989</v>
+        <v>0.0108990383858732</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0002980541848637</v>
+        <v>0.0042441900205058</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.016755296823488</v>
       </c>
       <c r="N21" t="n">
-        <v>-5.48670572329878</v>
+        <v>3.09587796786628</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.19158997858844</v>
+        <v>0.071931953575576</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.957627118644068</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.346</v>
+        <v>7.575</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0030785663497558</v>
+        <v>-0.0084158986175115</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0033535880653927</v>
+        <v>-0.0190880852395122</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0106547115878005</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.889759060623075</v>
+        <v>-0.111100971848337</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,11 +2451,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2465,46 +2461,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.475875456633766</v>
+        <v>0.008657510010570401</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H23" t="n">
-        <v>0.542372881355932</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>7.58</v>
+        <v>0.357</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0122418956043956</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0100343406593406</v>
+        <v>0.004265024422171</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0108935313776566</v>
+        <v>0.0202954428651599</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.42910241019485</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,7 +2538,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.224092199144111</v>
+        <v>0.280153459551614</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.873949579831933</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.356</v>
+        <v>0.538</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0042033615990308</v>
+        <v>0.0029160305260026</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0030096850669967</v>
+        <v>-0.0050530467132128</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0122945057275197</v>
+        <v>0.0117078187010069</v>
       </c>
       <c r="N24" t="n">
-        <v>1.18071955028958</v>
+        <v>0.542013108922428</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.374752179549415</v>
+        <v>0.136843336572019</v>
       </c>
       <c r="G25" t="n">
-        <v>0.322033898305085</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.186440677966102</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0002615467239527</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.0001126998309002</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0007147749510763</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.53851014089847</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9466388198871299</v>
+        <v>0.0581888357337833</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.686440677966102</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.538</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0074897470950102</v>
+        <v>0.023197696139477</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0149580351161289</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0516452878550517</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.39214630018778</v>
+        <v>2.18846189995066</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.479568936726079</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.347457627118644</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.018</v>
+        <v>0.296</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0259872927890593</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0004610835279539</v>
+        <v>-0.113834870407364</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0004809084924292</v>
+        <v>0.0901928231993977</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>8.77949080711462</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2902,11 +2902,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2916,11 +2912,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2927,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.168935876330293</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.771186440677966</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.09</v>
+        <v>86</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0153466386554622</v>
+        <v>7.36400813302942</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0104818017199899</v>
+        <v>-5.13370851561473</v>
       </c>
       <c r="M28" t="n">
-        <v>0.041855500852149</v>
+        <v>11.0297387339693</v>
       </c>
       <c r="N28" t="n">
-        <v>1.40794850050112</v>
+        <v>8.56280015468538</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2960,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,11 +2989,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3007,7 +2999,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,7 +3014,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3034,19 +3026,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.29</v>
+        <v>3.856</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0018989411392499</v>
+        <v>0.259171943451904</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.130636617977539</v>
+        <v>-0.379858667909975</v>
       </c>
       <c r="M29" t="n">
-        <v>0.083979509101167</v>
+        <v>0.5827651581919659</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.654807289396539</v>
+        <v>6.72126409366972</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3047,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3094,11 +3086,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3109,7 +3101,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.975451009195367</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3121,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86</v>
+        <v>0.2295</v>
       </c>
       <c r="K30" t="n">
-        <v>0.608552862868334</v>
+        <v>0.0250694318181818</v>
       </c>
       <c r="L30" t="n">
-        <v>-14.8218238676417</v>
+        <v>0.0060544430222925</v>
       </c>
       <c r="M30" t="n">
-        <v>10.6100547800221</v>
+        <v>0.0358904203183723</v>
       </c>
       <c r="N30" t="n">
-        <v>0.707619607986435</v>
+        <v>10.9234997029115</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3142,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3181,11 +3173,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3196,31 +3188,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.889664319040077</v>
+        <v>0.976353858256833</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.61</v>
+        <v>85.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.472135348241145</v>
+        <v>3.17243272230889</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.379858667909975</v>
+        <v>1.10495267556109</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6770805468543361</v>
+        <v>4.09782267651833</v>
       </c>
       <c r="N31" t="n">
-        <v>13.0785415025248</v>
+        <v>3.71044762843145</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3229,7 +3221,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3260,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3283,7 +3275,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.894751149972331</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3295,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2175</v>
+        <v>3.46</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0131022350993377</v>
+        <v>0.152969182141446</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0036427221028839</v>
+        <v>-0.0114391656325764</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0343286852811128</v>
+        <v>0.288054986834532</v>
       </c>
       <c r="N32" t="n">
-        <v>6.02401613762655</v>
+        <v>4.42107462836549</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3308,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3346,180 +3338,6 @@
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Makotuku at Above Sewage Plant</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.896586313752164</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>83</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.59410801963993</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.407110212002108</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.19180890324955</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.92061207185534</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1796994</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5632088</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Whau_3c</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Makotuku at Above Sewage Plant</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>10</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.704247481502542</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.0753577418096724</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-0.136356105064105</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.251495311312452</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.17796941646452</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>1796994</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5632088</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Whau_3c</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
+++ b/trend_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -136,18 +136,18 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -160,25 +160,22 @@
     <t>Very unlikely improving</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
@@ -572,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,31 +663,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.487892708675289</v>
+        <v>0.366644301839729</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.886363636363636</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>42.25</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.36952574499075</v>
       </c>
       <c r="L2">
-        <v>-4.53023616189836</v>
+        <v>-5.21785714285714</v>
       </c>
       <c r="M2">
-        <v>6.54857988715946</v>
+        <v>10.7991725586832</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3.24148105323254</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -705,19 +702,19 @@
         <v>5632088</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
         <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -734,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>0.302910845276168</v>
+        <v>0.134403371773833</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -752,16 +749,16 @@
         <v>10.57</v>
       </c>
       <c r="K3">
-        <v>-0.0299589883800408</v>
+        <v>-0.0426459478021982</v>
       </c>
       <c r="L3">
-        <v>-0.110576053542833</v>
+        <v>-0.0888708345435601</v>
       </c>
       <c r="M3">
-        <v>0.070020377204336</v>
+        <v>0.0341930566217197</v>
       </c>
       <c r="N3">
-        <v>-0.283434137937945</v>
+        <v>-0.403462136255423</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -776,19 +773,19 @@
         <v>5632088</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,7 +805,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.388577344564336</v>
+        <v>0.0642651194729079</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -820,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0075</v>
+        <v>0.007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0004013736263736</v>
       </c>
       <c r="L4">
-        <v>-0.0004630065547854</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0008745731198998</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.73390894819467</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1796994</v>
@@ -847,19 +844,19 @@
         <v>5632088</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,40 +873,40 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0696446828434242</v>
+        <v>0.134403371773833</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.793103448275862</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="K5">
-        <v>16.1729241676862</v>
+        <v>13.5798076923077</v>
       </c>
       <c r="L5">
-        <v>-5.69316070259223</v>
+        <v>-5.02736631865779</v>
       </c>
       <c r="M5">
-        <v>71.31032311550121</v>
+        <v>56.2853402714647</v>
       </c>
       <c r="N5">
-        <v>7.70139246080293</v>
+        <v>5.54277864992151</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1796994</v>
@@ -918,19 +915,19 @@
         <v>5632088</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.512885504105308</v>
+        <v>0.81184396634776</v>
       </c>
       <c r="G6">
-        <v>0.803571428571429</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="H6">
-        <v>0.214285714285714</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1796994</v>
@@ -989,19 +986,19 @@
         <v>5632088</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.996560912970298</v>
+        <v>0.9999095728644281</v>
       </c>
       <c r="G7">
-        <v>0.258620689655172</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="H7">
         <v>0.120689655172414</v>
@@ -1033,25 +1030,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7">
-        <v>-0.000332347588717</v>
+        <v>-0.0004537267080745</v>
       </c>
       <c r="L7">
-        <v>-0.0006000958888937</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-11.0782529572338</v>
+        <v>-22.6863354037267</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1796994</v>
@@ -1060,19 +1057,19 @@
         <v>5632088</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,40 +1086,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>2.51043042057803E-05</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.336</v>
+        <v>0.349</v>
       </c>
       <c r="K8">
-        <v>0.0542340344225381</v>
+        <v>0.0101872448979592</v>
       </c>
       <c r="L8">
-        <v>0.0321395451203863</v>
+        <v>-0.0190981370244267</v>
       </c>
       <c r="M8">
-        <v>0.07168570367322839</v>
+        <v>0.0286438183776031</v>
       </c>
       <c r="N8">
-        <v>16.1410816733744</v>
+        <v>2.91898134612011</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1796994</v>
@@ -1131,19 +1128,19 @@
         <v>5632088</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,40 +1157,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>6.13961447289979E-05</v>
+        <v>0.027539984457238</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.672413793103448</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.565</v>
+        <v>7.53</v>
       </c>
       <c r="K9">
-        <v>-0.0652232142857145</v>
+        <v>-0.0369405815423515</v>
       </c>
       <c r="L9">
-        <v>-0.09583675632839191</v>
+        <v>-0.0679247675401521</v>
       </c>
       <c r="M9">
-        <v>-0.0389401439695311</v>
+        <v>-0.0051334148166928</v>
       </c>
       <c r="N9">
-        <v>-0.862170710981024</v>
+        <v>-0.490578772142782</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1796994</v>
@@ -1202,16 +1199,16 @@
         <v>5632088</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0001485170235424</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.932203389830508</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1246,22 +1243,22 @@
         <v>0.357</v>
       </c>
       <c r="K10">
-        <v>0.0509527098048522</v>
+        <v>-0.000167239010989</v>
       </c>
       <c r="L10">
-        <v>0.0294980671350336</v>
+        <v>-0.0249024691855766</v>
       </c>
       <c r="M10">
-        <v>0.0674342383128235</v>
+        <v>0.0254532737796698</v>
       </c>
       <c r="N10">
-        <v>14.2724677324516</v>
+        <v>-0.0468456613414597</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1796994</v>
@@ -1270,19 +1267,19 @@
         <v>5632088</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,40 +1296,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>1.57186354734402E-07</v>
+        <v>0.187521811779306</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.741379310344828</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="K11">
-        <v>0.060206043956044</v>
+        <v>0.0175052636912268</v>
       </c>
       <c r="L11">
-        <v>0.0455306598785964</v>
+        <v>-0.010412408814517</v>
       </c>
       <c r="M11">
-        <v>0.07024038461538459</v>
+        <v>0.0460657719904094</v>
       </c>
       <c r="N11">
-        <v>11.9219889021869</v>
+        <v>3.39908032839356</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1796994</v>
@@ -1341,19 +1338,19 @@
         <v>5632088</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>0.0056558066848963</v>
+        <v>0.446563995234611</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1385,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0175</v>
+        <v>0.017</v>
       </c>
       <c r="K12">
-        <v>0.0019877551020408</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0006878046255121</v>
+        <v>-0.0012415616126546</v>
       </c>
       <c r="M12">
-        <v>0.0038293732538522</v>
+        <v>0.0015583471228074</v>
       </c>
       <c r="N12">
-        <v>11.3586005830904</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1796994</v>
@@ -1412,19 +1409,19 @@
         <v>5632088</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.212284438280387</v>
+        <v>0.865880040321639</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.827586206896552</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1459,22 +1456,22 @@
         <v>1.06</v>
       </c>
       <c r="K13">
-        <v>0.0369405815423514</v>
+        <v>-0.04136106271777</v>
       </c>
       <c r="L13">
-        <v>-0.0316354768096388</v>
+        <v>-0.106311535837424</v>
       </c>
       <c r="M13">
-        <v>0.172415925984401</v>
+        <v>0.0248971924253178</v>
       </c>
       <c r="N13">
-        <v>3.48496052286334</v>
+        <v>-3.90198704884623</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1796994</v>
@@ -1483,19 +1480,19 @@
         <v>5632088</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.346046578557065</v>
+        <v>0.323906023187406</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.690721649484536</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1530,22 +1527,22 @@
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.396055122322586</v>
+        <v>0.621173469387755</v>
       </c>
       <c r="L14">
-        <v>-1.48461679540763</v>
+        <v>-1.48169691769943</v>
       </c>
       <c r="M14">
-        <v>2.55967443363762</v>
+        <v>2.96984414896239</v>
       </c>
       <c r="N14">
-        <v>0.921058424006014</v>
+        <v>1.44458946369245</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1796994</v>
@@ -1554,19 +1551,19 @@
         <v>5632088</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" t="s">
         <v>60</v>
-      </c>
-      <c r="W14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,40 +1580,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.322176294984945</v>
+        <v>0.040723083775538</v>
       </c>
       <c r="G15">
-        <v>0.0571428571428571</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H15">
-        <v>0.642857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="K15">
-        <v>-0.0207057823129252</v>
+        <v>-0.14817065162352</v>
       </c>
       <c r="L15">
-        <v>-0.133058760970178</v>
+        <v>-0.306932773109244</v>
       </c>
       <c r="M15">
-        <v>0.099164958567185</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>-0.670090042489488</v>
+        <v>-4.71881056125861</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1796994</v>
@@ -1625,19 +1622,19 @@
         <v>5632088</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1654,40 +1651,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.999639313749991</v>
+        <v>0.992457399474834</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.898305084745763</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.35</v>
+        <v>10.505</v>
       </c>
       <c r="K16">
-        <v>0.0883771032704891</v>
+        <v>0.0518040840738208</v>
       </c>
       <c r="L16">
-        <v>0.0492079078013803</v>
+        <v>0.0139942528735633</v>
       </c>
       <c r="M16">
-        <v>0.117545255093733</v>
+        <v>0.0880491326494703</v>
       </c>
       <c r="N16">
-        <v>0.853885055753518</v>
+        <v>0.493137401940227</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1796994</v>
@@ -1696,19 +1693,19 @@
         <v>5632088</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,40 +1722,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>0.999356505128005</v>
+        <v>0.998852815321338</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.23728813559322</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K17">
-        <v>-0.0005473276723276</v>
+        <v>-0.0004141156462585</v>
       </c>
       <c r="L17">
-        <v>-0.0008415898617511</v>
+        <v>-0.000692635903919</v>
       </c>
       <c r="M17">
-        <v>-0.0002496582365003</v>
+        <v>-0.0001694109461966</v>
       </c>
       <c r="N17">
-        <v>-5.47327672327672</v>
+        <v>-4.60128495842782</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1796994</v>
@@ -1767,19 +1764,19 @@
         <v>5632088</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,40 +1793,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.163533353374155</v>
+        <v>0.298335313141039</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H18">
-        <v>0.703389830508475</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>229.5</v>
+        <v>240</v>
       </c>
       <c r="K18">
-        <v>2.81727786567848</v>
+        <v>1.4923406586204</v>
       </c>
       <c r="L18">
-        <v>-2.87957097312736</v>
+        <v>-5.30779750711758</v>
       </c>
       <c r="M18">
-        <v>13.7478040800349</v>
+        <v>11.0790265045366</v>
       </c>
       <c r="N18">
-        <v>1.22757205476186</v>
+        <v>0.6218086077585</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q18">
         <v>1796994</v>
@@ -1838,19 +1835,19 @@
         <v>5632088</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.0070160868088488</v>
+        <v>0.0189879718813601</v>
       </c>
       <c r="G19">
         <v>0.887931034482759</v>
@@ -1900,7 +1897,7 @@
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>1796994</v>
@@ -1909,19 +1906,19 @@
         <v>5632088</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.999684835671357</v>
+        <v>0.9999910338156049</v>
       </c>
       <c r="G20">
-        <v>0.220338983050847</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="H20">
-        <v>0.127118644067797</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1956,22 +1953,22 @@
         <v>0.003</v>
       </c>
       <c r="K20">
-        <v>-0.0001868286445012</v>
+        <v>-0.0002070578231292</v>
       </c>
       <c r="L20">
-        <v>-0.0002990176013098</v>
+        <v>-0.0003163655650454</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>-6.22762148337596</v>
+        <v>-6.90192743764172</v>
       </c>
       <c r="O20" t="s">
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1796994</v>
@@ -1980,19 +1977,19 @@
         <v>5632088</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,40 +2006,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.0060288184717891</v>
+        <v>0.151362570432696</v>
       </c>
       <c r="G21">
         <v>0.0169491525423729</v>
       </c>
       <c r="H21">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.35205</v>
+        <v>0.34705</v>
       </c>
       <c r="K21">
-        <v>0.0108990383858732</v>
+        <v>0.0043981937602627</v>
       </c>
       <c r="L21">
-        <v>0.0042441900205058</v>
+        <v>-0.0049282304950289</v>
       </c>
       <c r="M21">
-        <v>0.016755296823488</v>
+        <v>0.0106536554636348</v>
       </c>
       <c r="N21">
-        <v>3.09587796786628</v>
+        <v>1.26730838791607</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1796994</v>
@@ -2051,19 +2048,19 @@
         <v>5632088</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2080,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.071931953575576</v>
+        <v>0.045553560651525</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2095,25 +2092,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.575</v>
+        <v>7.565</v>
       </c>
       <c r="K22">
-        <v>-0.0084158986175115</v>
+        <v>-0.0100068493150685</v>
       </c>
       <c r="L22">
-        <v>-0.0190880852395122</v>
+        <v>-0.0210375404358913</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>-0.111100971848337</v>
+        <v>-0.132278246068322</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1796994</v>
@@ -2122,16 +2119,16 @@
         <v>5632088</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,16 +2145,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.008657510010570401</v>
+        <v>0.256609950936014</v>
       </c>
       <c r="G23">
         <v>0.008403361344537799</v>
       </c>
       <c r="H23">
-        <v>0.873949579831933</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2166,22 +2163,22 @@
         <v>0.357</v>
       </c>
       <c r="K23">
-        <v>0.0122418956043956</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L23">
-        <v>0.004265024422171</v>
+        <v>-0.0052337467801164</v>
       </c>
       <c r="M23">
-        <v>0.0202954428651599</v>
+        <v>0.0101877164196676</v>
       </c>
       <c r="N23">
-        <v>3.42910241019485</v>
+        <v>1.12429587219503</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1796994</v>
@@ -2190,19 +2187,19 @@
         <v>5632088</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,16 +2216,16 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.280153459551614</v>
+        <v>0.794154670250746</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.635593220338983</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2237,22 +2234,22 @@
         <v>0.538</v>
       </c>
       <c r="K24">
-        <v>0.0029160305260026</v>
+        <v>-0.0049459472468232</v>
       </c>
       <c r="L24">
-        <v>-0.0050530467132128</v>
+        <v>-0.0110489600581473</v>
       </c>
       <c r="M24">
-        <v>0.0117078187010069</v>
+        <v>0.0040539192854758</v>
       </c>
       <c r="N24">
-        <v>0.542013108922428</v>
+        <v>-0.919321049595399</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1796994</v>
@@ -2261,19 +2258,19 @@
         <v>5632088</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,40 +2287,40 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>0.136843336572019</v>
+        <v>0.260145888731088</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.347457627118644</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="K25">
-        <v>0.0002615467239527</v>
+        <v>0.0001304464285714</v>
       </c>
       <c r="L25">
-        <v>-0.0001126998309002</v>
+        <v>-0.0002140986826848</v>
       </c>
       <c r="M25">
-        <v>0.0007147749510763</v>
+        <v>0.000570615779628</v>
       </c>
       <c r="N25">
-        <v>1.53851014089847</v>
+        <v>0.815290178571428</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1796994</v>
@@ -2332,19 +2329,19 @@
         <v>5632088</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,40 +2358,40 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0581888357337833</v>
+        <v>0.180912840076214</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.76271186440678</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.06</v>
+        <v>1.055</v>
       </c>
       <c r="K26">
-        <v>0.023197696139477</v>
+        <v>0.0127575969263011</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0091057705257789</v>
       </c>
       <c r="M26">
-        <v>0.0516452878550517</v>
+        <v>0.0373937068296845</v>
       </c>
       <c r="N26">
-        <v>2.18846189995066</v>
+        <v>1.20925089348825</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1796994</v>
@@ -2403,19 +2400,19 @@
         <v>5632088</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,43 +2420,43 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.59675202974633</v>
+        <v>0.600550815703575</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.618320610687023</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.296</v>
+        <v>44.5</v>
       </c>
       <c r="K27">
-        <v>0.0259872927890593</v>
+        <v>-0.09218828874305909</v>
       </c>
       <c r="L27">
-        <v>-0.113834870407364</v>
+        <v>-1.50162397863303</v>
       </c>
       <c r="M27">
-        <v>0.0901928231993977</v>
+        <v>1.0666929172722</v>
       </c>
       <c r="N27">
-        <v>8.77949080711462</v>
+        <v>-0.207164693804627</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
@@ -2474,15 +2471,18 @@
         <v>5632088</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2491,49 +2491,49 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.889664319040077</v>
+        <v>0.998817918598513</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.847560975609756</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>86</v>
+        <v>10.38</v>
       </c>
       <c r="K28">
-        <v>7.36400813302942</v>
+        <v>0.0541503643970577</v>
       </c>
       <c r="L28">
-        <v>-5.13370851561473</v>
+        <v>0.0213659071733958</v>
       </c>
       <c r="M28">
-        <v>11.0297387339693</v>
+        <v>0.0792873512516238</v>
       </c>
       <c r="N28">
-        <v>8.56280015468538</v>
+        <v>0.521679811146992</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1796994</v>
@@ -2542,16 +2542,19 @@
         <v>5632088</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,49 +2562,49 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>0.768783636774762</v>
+        <v>0.5534333765973311</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.158536585365854</v>
       </c>
       <c r="H29">
+        <v>0.158536585365854</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>3.856</v>
+        <v>0.008</v>
       </c>
       <c r="K29">
-        <v>0.259171943451904</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-0.379858667909975</v>
+        <v>-0.0001281058371543</v>
       </c>
       <c r="M29">
-        <v>0.5827651581919659</v>
+        <v>8.78102061774287E-05</v>
       </c>
       <c r="N29">
-        <v>6.72126409366972</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1796994</v>
@@ -2610,16 +2613,19 @@
         <v>5632088</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,49 +2633,49 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>0.975451009195367</v>
+        <v>0.51305437230953</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.0060975609756097</v>
       </c>
       <c r="H30">
+        <v>0.719512195121951</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>0.2295</v>
+        <v>240</v>
       </c>
       <c r="K30">
-        <v>0.0250694318181818</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.0060544430222925</v>
+        <v>-5.15920632322984</v>
       </c>
       <c r="M30">
-        <v>0.0358904203183723</v>
+        <v>5.16915928691646</v>
       </c>
       <c r="N30">
-        <v>10.9234997029115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1796994</v>
@@ -2678,16 +2684,19 @@
         <v>5632088</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2695,10 +2704,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2707,37 +2716,37 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.976353858256833</v>
+        <v>0.659868273514748</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.864197530864197</v>
       </c>
       <c r="H31">
-        <v>0.8</v>
+        <v>0.160493827160494</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>85.5</v>
+        <v>0.005</v>
       </c>
       <c r="K31">
-        <v>3.17243272230889</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1.10495267556109</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>4.09782267651833</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3.71044762843145</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1796994</v>
@@ -2746,16 +2755,19 @@
         <v>5632088</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2763,67 +2775,901 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>0.984560604136118</v>
+      </c>
+      <c r="G32">
+        <v>0.329268292682927</v>
+      </c>
+      <c r="H32">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.003</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>-0.0001100813743218</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32">
+        <v>1796994</v>
+      </c>
+      <c r="R32">
+        <v>5632088</v>
+      </c>
+      <c r="S32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" t="s">
+        <v>59</v>
+      </c>
+      <c r="W32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>0.788440408641882</v>
+      </c>
+      <c r="G33">
+        <v>0.0121951219512195</v>
+      </c>
+      <c r="H33">
+        <v>0.9390243902439021</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.359</v>
+      </c>
+      <c r="K33">
+        <v>-0.0026755607815393</v>
+      </c>
+      <c r="L33">
+        <v>-0.0069120241584395</v>
+      </c>
+      <c r="M33">
+        <v>0.0018880006625</v>
+      </c>
+      <c r="N33">
+        <v>-0.745281554746329</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33">
+        <v>1796994</v>
+      </c>
+      <c r="R33">
+        <v>5632088</v>
+      </c>
+      <c r="S33" t="s">
+        <v>56</v>
+      </c>
+      <c r="T33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" t="s">
+        <v>59</v>
+      </c>
+      <c r="W33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>0.045932980463537</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.49390243902439</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.565</v>
+      </c>
+      <c r="K34">
+        <v>-0.0077878464818764</v>
+      </c>
+      <c r="L34">
+        <v>-0.0158823357705093</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>-0.102945756535048</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34">
+        <v>1796994</v>
+      </c>
+      <c r="R34">
+        <v>5632088</v>
+      </c>
+      <c r="S34" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>0.936280583004516</v>
+      </c>
+      <c r="G35">
+        <v>0.006060606060606</v>
+      </c>
+      <c r="H35">
+        <v>0.860606060606061</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.377</v>
+      </c>
+      <c r="K35">
+        <v>-0.0040137362637362</v>
+      </c>
+      <c r="L35">
+        <v>-0.009542805732474499</v>
+      </c>
+      <c r="M35">
+        <v>3.74201517659415E-05</v>
+      </c>
+      <c r="N35">
+        <v>-1.06465152884251</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35">
+        <v>1796994</v>
+      </c>
+      <c r="R35">
+        <v>5632088</v>
+      </c>
+      <c r="S35" t="s">
+        <v>56</v>
+      </c>
+      <c r="T35" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>0.9932650358488641</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.554878048780488</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.533</v>
+      </c>
+      <c r="K36">
+        <v>-0.0067206839935224</v>
+      </c>
+      <c r="L36">
+        <v>-0.010760585042916</v>
+      </c>
+      <c r="M36">
+        <v>-0.0028183347716607</v>
+      </c>
+      <c r="N36">
+        <v>-1.26091632148639</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36">
+        <v>1796994</v>
+      </c>
+      <c r="R36">
+        <v>5632088</v>
+      </c>
+      <c r="S36" t="s">
+        <v>56</v>
+      </c>
+      <c r="T36" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>0.320760358694415</v>
+      </c>
+      <c r="G37">
+        <v>0.0121951219512195</v>
+      </c>
+      <c r="H37">
+        <v>0.280487804878049</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0.0165</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>-0.0001688626907073</v>
+      </c>
+      <c r="M37">
+        <v>0.0003301387488932</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37">
+        <v>1796994</v>
+      </c>
+      <c r="R37">
+        <v>5632088</v>
+      </c>
+      <c r="S37" t="s">
+        <v>56</v>
+      </c>
+      <c r="T37" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" t="s">
+        <v>59</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>0.634099529663852</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.695121951219512</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.075</v>
+      </c>
+      <c r="K38">
+        <v>-0.0030205241653661</v>
+      </c>
+      <c r="L38">
+        <v>-0.0184702907711757</v>
+      </c>
+      <c r="M38">
+        <v>0.0120404376391551</v>
+      </c>
+      <c r="N38">
+        <v>-0.280978992127085</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38">
+        <v>1796994</v>
+      </c>
+      <c r="R38">
+        <v>5632088</v>
+      </c>
+      <c r="S38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" t="s">
+        <v>59</v>
+      </c>
+      <c r="W38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.342</v>
+      </c>
+      <c r="K39">
+        <v>4.69071061644155E-05</v>
+      </c>
+      <c r="L39">
+        <v>-0.113834870407364</v>
+      </c>
+      <c r="M39">
+        <v>0.0805327704902792</v>
+      </c>
+      <c r="N39">
+        <v>0.0137155281182501</v>
+      </c>
+      <c r="O39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39">
+        <v>1796994</v>
+      </c>
+      <c r="R39">
+        <v>5632088</v>
+      </c>
+      <c r="S39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T39" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>97.27</v>
+      </c>
+      <c r="K40">
+        <v>4.98422337063974</v>
+      </c>
+      <c r="L40">
+        <v>-5.64815592062787</v>
+      </c>
+      <c r="M40">
+        <v>10.6427026125986</v>
+      </c>
+      <c r="N40">
+        <v>5.12411161780584</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q40">
+        <v>1796994</v>
+      </c>
+      <c r="R40">
+        <v>5632088</v>
+      </c>
+      <c r="S40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T40" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C32">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>3.856</v>
+      </c>
+      <c r="K41">
+        <v>-0.0753189499187968</v>
+      </c>
+      <c r="L41">
+        <v>-0.619077551704093</v>
+      </c>
+      <c r="M41">
+        <v>0.212545077655129</v>
+      </c>
+      <c r="N41">
+        <v>-1.95329226967834</v>
+      </c>
+      <c r="O41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41">
+        <v>1796994</v>
+      </c>
+      <c r="R41">
+        <v>5632088</v>
+      </c>
+      <c r="S41" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42">
         <v>10</v>
       </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32">
-        <v>0.923796858021625</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0.975451009195367</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.2695</v>
+      </c>
+      <c r="K42">
+        <v>0.0221834193744306</v>
+      </c>
+      <c r="L42">
+        <v>0.0074449095991906</v>
+      </c>
+      <c r="M42">
+        <v>0.036853823513816</v>
+      </c>
+      <c r="N42">
+        <v>8.23132444320246</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42">
+        <v>1796994</v>
+      </c>
+      <c r="R42">
+        <v>5632088</v>
+      </c>
+      <c r="S42" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>0.980560297742384</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>86</v>
+      </c>
+      <c r="K43">
+        <v>3.20362653618571</v>
+      </c>
+      <c r="L43">
+        <v>1.4650947575093</v>
+      </c>
+      <c r="M43">
+        <v>5.02432415474066</v>
+      </c>
+      <c r="N43">
+        <v>3.72514713509966</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43">
+        <v>1796994</v>
+      </c>
+      <c r="R43">
+        <v>5632088</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>0.975451009195367</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>3.46</v>
       </c>
-      <c r="K32">
-        <v>0.152969182141446</v>
-      </c>
-      <c r="L32">
-        <v>-0.0114391656325764</v>
-      </c>
-      <c r="M32">
+      <c r="K44">
+        <v>0.168478493577267</v>
+      </c>
+      <c r="L44">
+        <v>0.0598490073535926</v>
+      </c>
+      <c r="M44">
         <v>0.288054986834532</v>
       </c>
-      <c r="N32">
-        <v>4.42107462836549</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q32">
-        <v>1796994</v>
-      </c>
-      <c r="R32">
-        <v>5632088</v>
-      </c>
-      <c r="S32" t="s">
-        <v>57</v>
-      </c>
-      <c r="T32" t="s">
-        <v>58</v>
-      </c>
-      <c r="U32" t="s">
-        <v>59</v>
-      </c>
-      <c r="V32" t="s">
-        <v>60</v>
+      <c r="N44">
+        <v>4.86932062362044</v>
+      </c>
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q44">
+        <v>1796994</v>
+      </c>
+      <c r="R44">
+        <v>5632088</v>
+      </c>
+      <c r="S44" t="s">
+        <v>56</v>
+      </c>
+      <c r="T44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
